--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,7 +735,7 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
@@ -785,214 +785,214 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D2" t="n">
-        <v>509</v>
+        <v>316</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D3" t="n">
-        <v>573</v>
+        <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>291</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45847</v>
+        <v>45863</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D4" t="n">
-        <v>581</v>
+        <v>313</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45846</v>
+        <v>45862</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D5" t="n">
-        <v>577</v>
+        <v>313</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>612</v>
+        <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>584</v>
+        <v>313</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D7" t="n">
-        <v>315</v>
+        <v>896</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D8" t="n">
-        <v>299</v>
+        <v>896</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45847</v>
+        <v>45863</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D9" t="n">
-        <v>316</v>
+        <v>896</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1001,26 +1001,26 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45846</v>
+        <v>45862</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>316</v>
+        <v>896</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1029,54 +1029,54 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>329</v>
+        <v>896</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1085,26 +1085,26 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1113,26 +1113,26 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45847</v>
+        <v>45863</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1141,26 +1141,26 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45846</v>
+        <v>45862</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,26 +1169,26 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,26 +1197,26 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1225,26 +1225,26 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,26 +1253,26 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45847</v>
+        <v>45863</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1281,26 +1281,26 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45846</v>
+        <v>45862</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,26 +1309,26 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>945</v>
+        <v>907</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1337,26 +1337,26 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1368,23 +1368,23 @@
         <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1396,23 +1396,23 @@
         <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45847</v>
+        <v>45863</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1424,23 +1424,23 @@
         <v>15</v>
       </c>
       <c r="H24" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45846</v>
+        <v>45862</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1452,23 +1452,23 @@
         <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>930</v>
+        <v>896</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1480,16 +1480,16 @@
         <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1513,11 +1513,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1541,11 +1541,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45847</v>
+        <v>45863</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1569,11 +1569,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45846</v>
+        <v>45862</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1597,18 +1597,18 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>945</v>
       </c>
       <c r="D31" t="n">
-        <v>930</v>
+        <v>896</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1620,16 +1620,16 @@
         <v>15</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1653,11 +1653,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1681,11 +1681,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45847</v>
+        <v>45863</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1709,11 +1709,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45846</v>
+        <v>45862</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1737,18 +1737,18 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>945</v>
       </c>
       <c r="D36" t="n">
-        <v>930</v>
+        <v>896</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1760,144 +1760,144 @@
         <v>15</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>945</v>
+        <v>1048</v>
       </c>
       <c r="D37" t="n">
-        <v>896</v>
+        <v>1033</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G37" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>945</v>
+        <v>1048</v>
       </c>
       <c r="D38" t="n">
-        <v>896</v>
+        <v>1033</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G38" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45847</v>
+        <v>45863</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>945</v>
+        <v>1048</v>
       </c>
       <c r="D39" t="n">
-        <v>896</v>
+        <v>766</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G39" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45846</v>
+        <v>45862</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>945</v>
+        <v>1000</v>
       </c>
       <c r="D40" t="n">
-        <v>896</v>
+        <v>991</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G40" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>pms</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>945</v>
+        <v>1000</v>
       </c>
       <c r="D41" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G41" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1905,35 +1905,35 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1000</v>
+        <v>288</v>
       </c>
       <c r="D42" t="n">
-        <v>1000</v>
+        <v>273</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1000</v>
+        <v>1048</v>
       </c>
       <c r="D43" t="n">
-        <v>1000</v>
+        <v>1018</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1961,119 +1961,119 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45847</v>
+        <v>45863</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1000</v>
+        <v>288</v>
       </c>
       <c r="D44" t="n">
-        <v>1000</v>
+        <v>274</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45846</v>
+        <v>45862</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1000</v>
+        <v>288</v>
       </c>
       <c r="D45" t="n">
-        <v>998</v>
+        <v>274</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" t="n">
         <v>2</v>
       </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pms</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1000</v>
+        <v>288</v>
       </c>
       <c r="D46" t="n">
-        <v>718</v>
+        <v>274</v>
       </c>
       <c r="E46" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>288</v>
+        <v>1142</v>
       </c>
       <c r="D47" t="n">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>715</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2101,83 +2101,83 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45847</v>
+        <v>45863</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>288</v>
+        <v>1142</v>
       </c>
       <c r="D49" t="n">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>714</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45846</v>
+        <v>45862</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>274</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>288</v>
+        <v>197</v>
       </c>
       <c r="D51" t="n">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2185,254 +2185,30 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45849</v>
+        <v>45866</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>197</v>
+        <v>1142</v>
       </c>
       <c r="D52" t="n">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1127</v>
       </c>
       <c r="F52" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D53" t="n">
-        <v>595</v>
-      </c>
-      <c r="E53" t="n">
-        <v>66</v>
-      </c>
-      <c r="F53" t="n">
-        <v>463</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1120</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>4</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1120</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1124</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>3</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>197</v>
-      </c>
-      <c r="D58" t="n">
-        <v>137</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>60</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>197</v>
-      </c>
-      <c r="D59" t="n">
-        <v>142</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>55</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>197</v>
-      </c>
-      <c r="D60" t="n">
-        <v>79</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>118</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -769,16 +769,16 @@
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="5" customWidth="1" min="25" max="25"/>
     <col width="5" customWidth="1" min="26" max="26"/>
@@ -786,8 +786,8 @@
     <col width="14" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="5" customWidth="1" min="34" max="34"/>
     <col width="5" customWidth="1" min="35" max="35"/>
@@ -1007,167 +1007,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>574</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>291</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>24-July-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1209,167 +1209,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>24-July-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1411,167 +1411,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>24-July-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1613,167 +1613,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>24-July-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1815,167 +1815,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>24-July-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -2017,167 +2017,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>24-July-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2219,167 +2219,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>24-July-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2421,192 +2421,192 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1048</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1033</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1048</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1033</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1048</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>766</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>191</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>91</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>24-July-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>991</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2623,167 +2623,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1056</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1055</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>1048</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1035</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>1048</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>1018</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>274</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>24-July-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2825,333 +2825,349 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>206</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>715</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>274</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>25-July-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>207</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>714</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>24-July-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
-      <c r="K12" t="n">
-        <v/>
-      </c>
-      <c r="L12" t="n">
-        <v/>
-      </c>
-      <c r="M12" t="n">
-        <v/>
-      </c>
-      <c r="N12" t="n">
-        <v/>
-      </c>
-      <c r="O12" t="n">
-        <v/>
-      </c>
-      <c r="P12" t="n">
-        <v/>
-      </c>
-      <c r="Q12" t="n">
-        <v/>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v/>
+      </c>
+      <c r="V12" t="n">
+        <v/>
+      </c>
+      <c r="W12" t="n">
+        <v/>
+      </c>
+      <c r="X12" t="n">
+        <v/>
+      </c>
+      <c r="Y12" t="n">
+        <v/>
+      </c>
+      <c r="Z12" t="n">
+        <v/>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
       </c>
       <c r="AK12" t="n">
         <v/>
@@ -3181,67 +3197,83 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="n">
-        <v/>
-      </c>
-      <c r="Q13" t="n">
-        <v/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S13" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -756,7 +756,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
@@ -778,16 +778,16 @@
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="14" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="5" customWidth="1" min="34" max="34"/>
     <col width="5" customWidth="1" min="35" max="35"/>
@@ -795,8 +795,8 @@
     <col width="14" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="6" customWidth="1" min="40" max="40"/>
+    <col width="6" customWidth="1" min="41" max="41"/>
     <col width="5" customWidth="1" min="42" max="42"/>
     <col width="5" customWidth="1" min="43" max="43"/>
     <col width="5" customWidth="1" min="44" max="44"/>
@@ -1007,192 +1007,192 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>574</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>574</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>291</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1209,167 +1209,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1411,167 +1411,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1613,167 +1613,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1815,167 +1815,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -2017,167 +2017,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2219,167 +2219,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2421,192 +2421,192 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1048</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1033</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1048</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1033</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1048</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>766</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>91</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2623,681 +2623,713 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1056</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1055</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>1056</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1055</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>1048</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>1035</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>pms</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>1048</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>1018</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>274</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>206</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>715</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>274</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>714</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="n">
+      <c r="AB12" t="n">
         <v/>
       </c>
-      <c r="T12" t="n">
+      <c r="AC12" t="n">
         <v/>
       </c>
-      <c r="U12" t="n">
+      <c r="AD12" t="n">
         <v/>
       </c>
-      <c r="V12" t="n">
+      <c r="AE12" t="n">
         <v/>
       </c>
-      <c r="W12" t="n">
+      <c r="AF12" t="n">
         <v/>
       </c>
-      <c r="X12" t="n">
+      <c r="AG12" t="n">
         <v/>
       </c>
-      <c r="Y12" t="n">
+      <c r="AH12" t="n">
         <v/>
       </c>
-      <c r="Z12" t="n">
+      <c r="AI12" t="n">
         <v/>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>1127</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AK12" t="n">
-        <v/>
-      </c>
-      <c r="AL12" t="n">
-        <v/>
-      </c>
-      <c r="AM12" t="n">
-        <v/>
-      </c>
-      <c r="AN12" t="n">
-        <v/>
-      </c>
-      <c r="AO12" t="n">
-        <v/>
-      </c>
-      <c r="AP12" t="n">
-        <v/>
-      </c>
-      <c r="AQ12" t="n">
-        <v/>
-      </c>
-      <c r="AR12" t="n">
-        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="n">
-        <v/>
-      </c>
-      <c r="U13" t="n">
-        <v/>
-      </c>
-      <c r="V13" t="n">
-        <v/>
-      </c>
-      <c r="W13" t="n">
-        <v/>
-      </c>
-      <c r="X13" t="n">
-        <v/>
-      </c>
-      <c r="Y13" t="n">
-        <v/>
-      </c>
-      <c r="Z13" t="n">
-        <v/>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB13" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -431,31 +431,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>264</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="13" name="Image 13" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -760,12 +735,12 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
@@ -787,16 +762,16 @@
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="14" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="6" customWidth="1" min="40" max="40"/>
-    <col width="6" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
     <col width="5" customWidth="1" min="42" max="42"/>
     <col width="5" customWidth="1" min="43" max="43"/>
     <col width="5" customWidth="1" min="44" max="44"/>
@@ -1007,192 +982,192 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>574</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>574</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>574</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1209,167 +1184,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1411,167 +1386,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1613,167 +1588,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1815,167 +1790,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -2017,167 +1992,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2219,167 +2194,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2421,167 +2396,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1056</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1043</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1048</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1033</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2623,737 +2598,721 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>1056</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1055</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>1056</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>1055</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>1048</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>1035</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>pms</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>1048</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>1018</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>206</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>715</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>274</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v/>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v/>
+      </c>
+      <c r="E12" t="n">
+        <v/>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+      <c r="G12" t="n">
+        <v/>
+      </c>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB12" t="n">
+      <c r="AK12" t="n">
         <v/>
       </c>
-      <c r="AC12" t="n">
+      <c r="AL12" t="n">
         <v/>
       </c>
-      <c r="AD12" t="n">
+      <c r="AM12" t="n">
         <v/>
       </c>
-      <c r="AE12" t="n">
+      <c r="AN12" t="n">
         <v/>
       </c>
-      <c r="AF12" t="n">
+      <c r="AO12" t="n">
         <v/>
       </c>
-      <c r="AG12" t="n">
+      <c r="AP12" t="n">
         <v/>
       </c>
-      <c r="AH12" t="n">
+      <c r="AQ12" t="n">
         <v/>
       </c>
-      <c r="AI12" t="n">
+      <c r="AR12" t="n">
         <v/>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>1127</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v/>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v/>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AK13" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -734,7 +734,7 @@
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="5" customWidth="1" min="7" max="7"/>
@@ -744,12 +744,12 @@
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
@@ -771,10 +771,10 @@
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="6" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="5" customWidth="1" min="43" max="43"/>
-    <col width="5" customWidth="1" min="44" max="44"/>
+    <col width="6" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -982,1182 +982,1182 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>574</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>574</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
         <is>
           <t>574</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>22</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -2194,172 +2194,172 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
@@ -2396,606 +2396,606 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1056</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1056</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1043</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1048</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>1033</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>1056</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>1055</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>1056</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>1055</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>1048</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>1035</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>206</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>715</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
     </row>
@@ -3024,149 +3024,149 @@
       <c r="H12" t="n">
         <v/>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v/>
+      </c>
+      <c r="M12" t="n">
+        <v/>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v/>
+      </c>
+      <c r="P12" t="n">
+        <v/>
+      </c>
+      <c r="Q12" t="n">
+        <v/>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AK12" t="n">
-        <v/>
-      </c>
-      <c r="AL12" t="n">
-        <v/>
-      </c>
-      <c r="AM12" t="n">
-        <v/>
-      </c>
-      <c r="AN12" t="n">
-        <v/>
-      </c>
-      <c r="AO12" t="n">
-        <v/>
-      </c>
-      <c r="AP12" t="n">
-        <v/>
-      </c>
-      <c r="AQ12" t="n">
-        <v/>
-      </c>
-      <c r="AR12" t="n">
-        <v/>
       </c>
     </row>
     <row r="13">
@@ -3194,149 +3194,149 @@
       <c r="H13" t="n">
         <v/>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v/>
+      </c>
+      <c r="M13" t="n">
+        <v/>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v/>
+      </c>
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="n">
+        <v/>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="n">
-        <v/>
-      </c>
-      <c r="AL13" t="n">
-        <v/>
-      </c>
-      <c r="AM13" t="n">
-        <v/>
-      </c>
-      <c r="AN13" t="n">
-        <v/>
-      </c>
-      <c r="AO13" t="n">
-        <v/>
-      </c>
-      <c r="AP13" t="n">
-        <v/>
-      </c>
-      <c r="AQ13" t="n">
-        <v/>
-      </c>
-      <c r="AR13" t="n">
-        <v/>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -734,7 +734,7 @@
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="5" customWidth="1" min="7" max="7"/>
@@ -743,7 +743,7 @@
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="5" customWidth="1" min="16" max="16"/>
@@ -753,12 +753,12 @@
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="14" customWidth="1" min="28" max="28"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -982,167 +982,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
         <is>
           <t>574</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>574</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1184,167 +1184,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1386,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1588,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,167 +1790,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1992,167 +1992,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2194,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,167 +2396,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1056</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>781</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>191</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1056</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1043</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2598,192 +2598,192 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>1056</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>1055</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>1056</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>1055</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>1048</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>1035</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2800,167 +2800,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3048,89 +3048,73 @@
       <c r="Q12" t="n">
         <v/>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v/>
+      </c>
+      <c r="V12" t="n">
+        <v/>
+      </c>
+      <c r="W12" t="n">
+        <v/>
+      </c>
+      <c r="X12" t="n">
+        <v/>
+      </c>
+      <c r="Y12" t="n">
+        <v/>
+      </c>
+      <c r="Z12" t="n">
+        <v/>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
         <is>
           <t>1130</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3218,89 +3202,73 @@
       <c r="Q13" t="n">
         <v/>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="n">
+        <v/>
+      </c>
+      <c r="X13" t="n">
+        <v/>
+      </c>
+      <c r="Y13" t="n">
+        <v/>
+      </c>
+      <c r="Z13" t="n">
+        <v/>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -431,6 +431,56 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>264</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>286</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -723,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR13"/>
+  <dimension ref="A1:AR14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -743,7 +793,7 @@
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="5" customWidth="1" min="16" max="16"/>
@@ -752,7 +802,7 @@
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="5" customWidth="1" min="25" max="25"/>
@@ -762,12 +812,12 @@
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="14" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="6" customWidth="1" min="40" max="40"/>
@@ -982,167 +1032,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>574</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1184,167 +1234,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1436,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1638,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,167 +1840,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1992,167 +2042,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2244,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,167 +2446,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1056</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>781</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>191</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1056</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1043</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2598,167 +2648,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>1056</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>1055</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2800,167 +2850,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3000,121 +3050,169 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v/>
-      </c>
-      <c r="B12" t="n">
-        <v/>
-      </c>
-      <c r="C12" t="n">
-        <v/>
-      </c>
-      <c r="D12" t="n">
-        <v/>
-      </c>
-      <c r="E12" t="n">
-        <v/>
-      </c>
-      <c r="F12" t="n">
-        <v/>
-      </c>
-      <c r="G12" t="n">
-        <v/>
-      </c>
-      <c r="H12" t="n">
-        <v/>
-      </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
-      <c r="K12" t="n">
-        <v/>
-      </c>
-      <c r="L12" t="n">
-        <v/>
-      </c>
-      <c r="M12" t="n">
-        <v/>
-      </c>
-      <c r="N12" t="n">
-        <v/>
-      </c>
-      <c r="O12" t="n">
-        <v/>
-      </c>
-      <c r="P12" t="n">
-        <v/>
-      </c>
-      <c r="Q12" t="n">
-        <v/>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="n">
-        <v/>
-      </c>
-      <c r="U12" t="n">
-        <v/>
-      </c>
-      <c r="V12" t="n">
-        <v/>
-      </c>
-      <c r="W12" t="n">
-        <v/>
-      </c>
-      <c r="X12" t="n">
-        <v/>
-      </c>
-      <c r="Y12" t="n">
-        <v/>
-      </c>
-      <c r="Z12" t="n">
-        <v/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3154,154 +3252,340 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v/>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="n">
         <v/>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v/>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" t="n">
         <v/>
       </c>
-      <c r="E13" t="n">
+      <c r="E14" t="n">
         <v/>
       </c>
-      <c r="F13" t="n">
+      <c r="F14" t="n">
         <v/>
       </c>
-      <c r="G13" t="n">
+      <c r="G14" t="n">
         <v/>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v/>
       </c>
-      <c r="J13" t="n">
+      <c r="J14" t="n">
         <v/>
       </c>
-      <c r="K13" t="n">
+      <c r="K14" t="n">
         <v/>
       </c>
-      <c r="L13" t="n">
+      <c r="L14" t="n">
         <v/>
       </c>
-      <c r="M13" t="n">
+      <c r="M14" t="n">
         <v/>
       </c>
-      <c r="N13" t="n">
+      <c r="N14" t="n">
         <v/>
       </c>
-      <c r="O13" t="n">
+      <c r="O14" t="n">
         <v/>
       </c>
-      <c r="P13" t="n">
+      <c r="P14" t="n">
         <v/>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q14" t="n">
         <v/>
       </c>
-      <c r="S13" t="n">
+      <c r="S14" t="n">
         <v/>
       </c>
-      <c r="T13" t="n">
+      <c r="T14" t="n">
         <v/>
       </c>
-      <c r="U13" t="n">
+      <c r="U14" t="n">
         <v/>
       </c>
-      <c r="V13" t="n">
+      <c r="V14" t="n">
         <v/>
       </c>
-      <c r="W13" t="n">
+      <c r="W14" t="n">
         <v/>
       </c>
-      <c r="X13" t="n">
+      <c r="X14" t="n">
         <v/>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y14" t="n">
         <v/>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z14" t="n">
         <v/>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
+      </c>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -431,56 +431,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>264</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="13" name="Image 13" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>286</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="14" name="Image 14" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -773,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR14"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,43 +735,43 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="3" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="3" customWidth="1" min="14" max="14"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="3" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="16" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="6" customWidth="1" min="40" max="40"/>
-    <col width="6" customWidth="1" min="41" max="41"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
     <col width="4" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
@@ -1032,1182 +982,1182 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>574</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -2244,172 +2194,172 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
@@ -2446,793 +2396,793 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1056</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>781</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>191</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1056</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1043</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>272</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>1056</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>1055</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3247,345 +3197,207 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AQ13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v/>
-      </c>
-      <c r="B14" t="n">
-        <v/>
-      </c>
-      <c r="C14" t="n">
-        <v/>
-      </c>
-      <c r="D14" t="n">
-        <v/>
-      </c>
-      <c r="E14" t="n">
-        <v/>
-      </c>
-      <c r="F14" t="n">
-        <v/>
-      </c>
-      <c r="G14" t="n">
-        <v/>
-      </c>
-      <c r="H14" t="n">
-        <v/>
-      </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
-      <c r="K14" t="n">
-        <v/>
-      </c>
-      <c r="L14" t="n">
-        <v/>
-      </c>
-      <c r="M14" t="n">
-        <v/>
-      </c>
-      <c r="N14" t="n">
-        <v/>
-      </c>
-      <c r="O14" t="n">
-        <v/>
-      </c>
-      <c r="P14" t="n">
-        <v/>
-      </c>
-      <c r="Q14" t="n">
-        <v/>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="n">
-        <v/>
-      </c>
-      <c r="U14" t="n">
-        <v/>
-      </c>
-      <c r="V14" t="n">
-        <v/>
-      </c>
-      <c r="W14" t="n">
-        <v/>
-      </c>
-      <c r="X14" t="n">
-        <v/>
-      </c>
-      <c r="Y14" t="n">
-        <v/>
-      </c>
-      <c r="Z14" t="n">
-        <v/>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
-        <v/>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -761,8 +761,8 @@
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
@@ -770,8 +770,8 @@
     <col width="16" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="6" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
     <col width="4" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
@@ -982,167 +982,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1184,167 +1184,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1386,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1588,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,167 +1790,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1992,167 +1992,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2194,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,192 +2396,192 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1056</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>781</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>191</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>84</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1056</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>1043</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2598,167 +2598,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>272</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2800,167 +2800,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3002,167 +3002,167 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3204,167 +3204,167 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -770,8 +770,8 @@
     <col width="16" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="6" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
     <col width="4" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
@@ -982,167 +982,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1184,167 +1184,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1386,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1588,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,167 +1790,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1992,167 +1992,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2194,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,192 +2396,192 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1056</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>781</t>
-        </is>
-      </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2598,167 +2598,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>272</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2800,184 +2800,184 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="AO11" t="inlineStr">
         <is>
           <t>0</t>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -3002,167 +3002,167 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3204,192 +3204,192 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>18</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -982,167 +982,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1184,167 +1184,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1386,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1588,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,167 +1790,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1992,167 +1992,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2194,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,167 +2396,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2598,192 +2598,192 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>272</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2800,167 +2800,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3002,167 +3002,167 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3204,167 +3204,167 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -982,167 +982,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1184,167 +1184,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1386,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1588,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,192 +1790,192 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1992,167 +1992,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2194,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,167 +2396,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2598,192 +2598,192 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>272</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>272</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2800,167 +2800,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3002,167 +3002,167 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3204,167 +3204,167 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -982,167 +982,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1184,167 +1184,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1386,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1588,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,184 +1790,184 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>895</t>
-        </is>
-      </c>
       <c r="AO6" t="inlineStr">
         <is>
           <t>0</t>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1992,167 +1992,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2194,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,167 +2396,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2598,167 +2598,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>272</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2800,167 +2800,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3002,167 +3002,167 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3204,167 +3204,167 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -982,167 +982,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1184,167 +1184,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1386,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1588,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,167 +1790,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1992,167 +1992,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2194,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,167 +2396,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2598,167 +2598,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>272</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2800,167 +2800,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3002,167 +3002,167 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3204,167 +3204,167 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -982,167 +982,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1184,167 +1184,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1386,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1588,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,167 +1790,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1992,167 +1992,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2194,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,167 +2396,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2598,192 +2598,192 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>272</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2800,167 +2800,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3002,167 +3002,167 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3204,167 +3204,167 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -982,167 +982,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1184,167 +1184,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1386,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1588,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,167 +1790,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1992,167 +1992,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2194,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,167 +2396,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2598,192 +2598,192 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>272</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2800,167 +2800,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3002,167 +3002,167 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3204,167 +3204,167 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -982,167 +982,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1184,167 +1184,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1386,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1588,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,167 +1790,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1992,167 +1992,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2194,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,167 +2396,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2598,167 +2598,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2800,167 +2800,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3002,167 +3002,167 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3204,167 +3204,167 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -982,167 +982,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1184,167 +1184,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1386,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1588,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,167 +1790,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1992,167 +1992,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2194,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,167 +2396,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2598,167 +2598,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2800,167 +2800,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3002,167 +3002,167 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3204,167 +3204,167 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -734,11 +734,11 @@
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="3" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -982,167 +982,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1184,167 +1184,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1386,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1588,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,167 +1790,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1992,167 +1992,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2194,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,167 +2396,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2598,167 +2598,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2800,167 +2800,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3002,167 +3002,167 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3202,169 +3202,153 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v/>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v/>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -431,6 +431,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>264</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -723,7 +748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR13"/>
+  <dimension ref="A1:AR14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,47 +759,47 @@
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="3" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="3" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="3" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="16" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="6" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="4" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -982,192 +1007,192 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1184,167 +1209,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1411,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1613,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,167 +1815,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1992,167 +2017,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2219,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>827</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>83</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,167 +2421,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2598,167 +2623,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2800,192 +2825,192 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -3002,167 +3027,167 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3202,189 +3227,327 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v/>
-      </c>
-      <c r="B13" t="n">
-        <v/>
-      </c>
-      <c r="C13" t="n">
-        <v/>
-      </c>
-      <c r="D13" t="n">
-        <v/>
-      </c>
-      <c r="E13" t="n">
-        <v/>
-      </c>
-      <c r="F13" t="n">
-        <v/>
-      </c>
-      <c r="G13" t="n">
-        <v/>
-      </c>
-      <c r="H13" t="n">
-        <v/>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v/>
+      </c>
+      <c r="M13" t="n">
+        <v/>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v/>
+      </c>
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="n">
+        <v/>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v/>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v/>
+      </c>
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="n">
+        <v/>
+      </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="n">
+        <v/>
+      </c>
+      <c r="W14" t="n">
+        <v/>
+      </c>
+      <c r="X14" t="n">
+        <v/>
+      </c>
+      <c r="Y14" t="n">
+        <v/>
+      </c>
+      <c r="Z14" t="n">
+        <v/>
+      </c>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
+      </c>
+      <c r="AK14" t="n">
+        <v/>
+      </c>
+      <c r="AL14" t="n">
+        <v/>
+      </c>
+      <c r="AM14" t="n">
+        <v/>
+      </c>
+      <c r="AN14" t="n">
+        <v/>
+      </c>
+      <c r="AO14" t="n">
+        <v/>
+      </c>
+      <c r="AP14" t="n">
+        <v/>
+      </c>
+      <c r="AQ14" t="n">
+        <v/>
+      </c>
+      <c r="AR14" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -760,24 +760,24 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="3" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="3" customWidth="1" min="14" max="14"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="5" customWidth="1" min="25" max="25"/>
@@ -1007,167 +1007,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1209,167 +1209,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>314</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1411,167 +1411,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1613,167 +1613,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1815,167 +1815,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -2017,167 +2017,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2219,167 +2219,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>827</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>83</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2421,167 +2421,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2623,167 +2623,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2825,167 +2825,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3027,167 +3027,167 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3229,151 +3229,151 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="n">
-        <v/>
-      </c>
-      <c r="Q13" t="n">
-        <v/>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="n">
+        <v/>
+      </c>
+      <c r="X13" t="n">
+        <v/>
+      </c>
+      <c r="Y13" t="n">
+        <v/>
+      </c>
+      <c r="Z13" t="n">
+        <v/>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3413,69 +3413,69 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v/>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v/>
+      </c>
+      <c r="E14" t="n">
+        <v/>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+      <c r="G14" t="n">
+        <v/>
+      </c>
+      <c r="H14" t="n">
+        <v/>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
-      <c r="K14" t="n">
-        <v/>
-      </c>
-      <c r="L14" t="n">
-        <v/>
-      </c>
-      <c r="M14" t="n">
-        <v/>
-      </c>
-      <c r="N14" t="n">
-        <v/>
-      </c>
-      <c r="O14" t="n">
-        <v/>
-      </c>
-      <c r="P14" t="n">
-        <v/>
-      </c>
-      <c r="Q14" t="n">
-        <v/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S14" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -769,24 +769,24 @@
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="3" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="3" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="5" customWidth="1" min="34" max="34"/>
@@ -1007,167 +1007,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>314</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1209,167 +1209,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>314</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1411,167 +1411,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1613,167 +1613,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1815,167 +1815,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -2017,167 +2017,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2219,167 +2219,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>827</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>83</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2421,167 +2421,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2623,167 +2623,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2825,167 +2825,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3027,167 +3027,167 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3229,151 +3229,151 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="n">
-        <v/>
-      </c>
-      <c r="U13" t="n">
-        <v/>
-      </c>
-      <c r="V13" t="n">
-        <v/>
-      </c>
-      <c r="W13" t="n">
-        <v/>
-      </c>
-      <c r="X13" t="n">
-        <v/>
-      </c>
-      <c r="Y13" t="n">
-        <v/>
-      </c>
-      <c r="Z13" t="n">
-        <v/>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3437,69 +3437,69 @@
       <c r="H14" t="n">
         <v/>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v/>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v/>
+      </c>
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="n">
+        <v/>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="n">
-        <v/>
-      </c>
-      <c r="U14" t="n">
-        <v/>
-      </c>
-      <c r="V14" t="n">
-        <v/>
-      </c>
-      <c r="W14" t="n">
-        <v/>
-      </c>
-      <c r="X14" t="n">
-        <v/>
-      </c>
-      <c r="Y14" t="n">
-        <v/>
-      </c>
-      <c r="Z14" t="n">
-        <v/>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB14" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -778,24 +778,24 @@
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="3" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="16" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="6" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
     <col width="5" customWidth="1" min="41" max="41"/>
     <col width="5" customWidth="1" min="42" max="42"/>
     <col width="5" customWidth="1" min="43" max="43"/>
@@ -1007,980 +1007,980 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>314</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>314</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>314</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>23</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>22</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
@@ -2017,172 +2017,172 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -2219,790 +2219,790 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>827</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>83</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="AO11" t="inlineStr">
         <is>
           <t>0</t>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -3027,192 +3027,192 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>18</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -3229,187 +3229,187 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="n">
+        <v/>
+      </c>
+      <c r="AL13" t="n">
+        <v/>
+      </c>
+      <c r="AM13" t="n">
+        <v/>
+      </c>
+      <c r="AN13" t="n">
+        <v/>
+      </c>
+      <c r="AO13" t="n">
+        <v/>
+      </c>
+      <c r="AP13" t="n">
+        <v/>
+      </c>
+      <c r="AQ13" t="n">
+        <v/>
+      </c>
+      <c r="AR13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -3461,69 +3461,69 @@
       <c r="Q14" t="n">
         <v/>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="n">
+        <v/>
+      </c>
+      <c r="W14" t="n">
+        <v/>
+      </c>
+      <c r="X14" t="n">
+        <v/>
+      </c>
+      <c r="Y14" t="n">
+        <v/>
+      </c>
+      <c r="Z14" t="n">
+        <v/>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
-        <v/>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AK14" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -756,7 +756,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
@@ -787,19 +787,19 @@
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="16" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="5" customWidth="1" min="43" max="43"/>
-    <col width="5" customWidth="1" min="44" max="44"/>
+    <col width="6" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1007,1182 +1007,1182 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>314</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>314</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>314</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>610</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>314</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>22</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -2219,588 +2219,588 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>827</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>274</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AO10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2825,394 +2825,394 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -3229,187 +3229,203 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="n">
-        <v/>
-      </c>
-      <c r="AL13" t="n">
-        <v/>
-      </c>
-      <c r="AM13" t="n">
-        <v/>
-      </c>
-      <c r="AN13" t="n">
-        <v/>
-      </c>
-      <c r="AO13" t="n">
-        <v/>
-      </c>
-      <c r="AP13" t="n">
-        <v/>
-      </c>
-      <c r="AQ13" t="n">
-        <v/>
-      </c>
-      <c r="AR13" t="n">
-        <v/>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -3485,69 +3501,69 @@
       <c r="Z14" t="n">
         <v/>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
+      </c>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK14" t="n">
-        <v/>
-      </c>
-      <c r="AL14" t="n">
-        <v/>
-      </c>
-      <c r="AM14" t="n">
-        <v/>
-      </c>
-      <c r="AN14" t="n">
-        <v/>
-      </c>
-      <c r="AO14" t="n">
-        <v/>
-      </c>
-      <c r="AP14" t="n">
-        <v/>
-      </c>
-      <c r="AQ14" t="n">
-        <v/>
-      </c>
-      <c r="AR14" t="n">
-        <v/>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -431,31 +431,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>264</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="13" name="Image 13" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -748,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR14"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,38 +734,38 @@
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="5" customWidth="1" min="7" max="7"/>
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="3" customWidth="1" min="14" max="14"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="3" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="16" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
@@ -1007,1182 +982,1182 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>314</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>314</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>314</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -2219,172 +2194,172 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
@@ -2421,184 +2396,184 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
       <c r="AO9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2611,398 +2586,398 @@
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>274</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>274</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>273</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
       <c r="AO11" t="inlineStr">
         <is>
           <t>0</t>
@@ -3010,199 +2985,199 @@
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -3227,340 +3202,186 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v/>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v/>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AQ13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v/>
-      </c>
-      <c r="B14" t="n">
-        <v/>
-      </c>
-      <c r="C14" t="n">
-        <v/>
-      </c>
-      <c r="D14" t="n">
-        <v/>
-      </c>
-      <c r="E14" t="n">
-        <v/>
-      </c>
-      <c r="F14" t="n">
-        <v/>
-      </c>
-      <c r="G14" t="n">
-        <v/>
-      </c>
-      <c r="H14" t="n">
-        <v/>
-      </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
-      <c r="K14" t="n">
-        <v/>
-      </c>
-      <c r="L14" t="n">
-        <v/>
-      </c>
-      <c r="M14" t="n">
-        <v/>
-      </c>
-      <c r="N14" t="n">
-        <v/>
-      </c>
-      <c r="O14" t="n">
-        <v/>
-      </c>
-      <c r="P14" t="n">
-        <v/>
-      </c>
-      <c r="Q14" t="n">
-        <v/>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="n">
-        <v/>
-      </c>
-      <c r="U14" t="n">
-        <v/>
-      </c>
-      <c r="V14" t="n">
-        <v/>
-      </c>
-      <c r="W14" t="n">
-        <v/>
-      </c>
-      <c r="X14" t="n">
-        <v/>
-      </c>
-      <c r="Y14" t="n">
-        <v/>
-      </c>
-      <c r="Z14" t="n">
-        <v/>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
-        <v/>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -743,13 +743,13 @@
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="3" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="16" customWidth="1" min="19" max="19"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
@@ -982,167 +982,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>314</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1184,167 +1184,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1386,167 +1386,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1588,167 +1588,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1790,167 +1790,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1992,167 +1992,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2194,167 +2194,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>829</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2396,167 +2396,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>275</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2598,167 +2598,167 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>274</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>274</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2800,192 +2800,192 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -3002,167 +3002,167 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3226,154 +3226,138 @@
       <c r="H13" t="n">
         <v/>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v/>
+      </c>
+      <c r="M13" t="n">
+        <v/>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v/>
+      </c>
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="n">
+        <v/>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>18</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -431,6 +431,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>264</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -723,7 +748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR13"/>
+  <dimension ref="A1:AR14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,8 +762,8 @@
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -753,28 +778,28 @@
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="3" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="16" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="6" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="4" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -987,37 +1012,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>612</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>240</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>175</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>192</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1189,17 +1214,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>414</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>313</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1209,17 +1234,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1391,7 +1416,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1401,7 +1426,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>895</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1411,7 +1436,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1421,7 +1446,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>34</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1593,7 +1618,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1603,7 +1628,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>923</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1618,12 +1643,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1795,7 +1820,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1805,7 +1830,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>907</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1825,7 +1850,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1997,7 +2022,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2199,37 +2224,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1068</t>
+          <t>945</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>896</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -2401,17 +2426,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>945</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>896</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2421,17 +2446,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>34</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2603,27 +2628,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>829</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>158</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2805,17 +2830,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>275</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2825,17 +2850,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -3007,27 +3032,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>residentui</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>18</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -3202,29 +3227,45 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v/>
-      </c>
-      <c r="B13" t="n">
-        <v/>
-      </c>
-      <c r="C13" t="n">
-        <v/>
-      </c>
-      <c r="D13" t="n">
-        <v/>
-      </c>
-      <c r="E13" t="n">
-        <v/>
-      </c>
-      <c r="F13" t="n">
-        <v/>
-      </c>
-      <c r="G13" t="n">
-        <v/>
-      </c>
-      <c r="H13" t="n">
-        <v/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J13" t="n">
         <v/>
@@ -3369,6 +3410,144 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v/>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v/>
+      </c>
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="n">
+        <v/>
+      </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="n">
+        <v/>
+      </c>
+      <c r="W14" t="n">
+        <v/>
+      </c>
+      <c r="X14" t="n">
+        <v/>
+      </c>
+      <c r="Y14" t="n">
+        <v/>
+      </c>
+      <c r="Z14" t="n">
+        <v/>
+      </c>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
+      </c>
+      <c r="AK14" t="n">
+        <v/>
+      </c>
+      <c r="AL14" t="n">
+        <v/>
+      </c>
+      <c r="AM14" t="n">
+        <v/>
+      </c>
+      <c r="AN14" t="n">
+        <v/>
+      </c>
+      <c r="AO14" t="n">
+        <v/>
+      </c>
+      <c r="AP14" t="n">
+        <v/>
+      </c>
+      <c r="AQ14" t="n">
+        <v/>
+      </c>
+      <c r="AR14" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -757,13 +757,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -771,19 +771,19 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="5" customWidth="1" min="25" max="25"/>
     <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="16" customWidth="1" min="28" max="28"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -1007,167 +1007,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>192</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -1207,169 +1207,153 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v/>
+      </c>
+      <c r="B3" t="n">
+        <v/>
+      </c>
+      <c r="C3" t="n">
+        <v/>
+      </c>
+      <c r="D3" t="n">
+        <v/>
+      </c>
+      <c r="E3" t="n">
+        <v/>
+      </c>
+      <c r="F3" t="n">
+        <v/>
+      </c>
+      <c r="G3" t="n">
+        <v/>
+      </c>
+      <c r="H3" t="n">
+        <v/>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1409,169 +1393,153 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v/>
+      </c>
+      <c r="B4" t="n">
+        <v/>
+      </c>
+      <c r="C4" t="n">
+        <v/>
+      </c>
+      <c r="D4" t="n">
+        <v/>
+      </c>
+      <c r="E4" t="n">
+        <v/>
+      </c>
+      <c r="F4" t="n">
+        <v/>
+      </c>
+      <c r="G4" t="n">
+        <v/>
+      </c>
+      <c r="H4" t="n">
+        <v/>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1611,169 +1579,153 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v/>
+      </c>
+      <c r="B5" t="n">
+        <v/>
+      </c>
+      <c r="C5" t="n">
+        <v/>
+      </c>
+      <c r="D5" t="n">
+        <v/>
+      </c>
+      <c r="E5" t="n">
+        <v/>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+      <c r="G5" t="n">
+        <v/>
+      </c>
+      <c r="H5" t="n">
+        <v/>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1813,169 +1765,153 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v/>
+      </c>
+      <c r="B6" t="n">
+        <v/>
+      </c>
+      <c r="C6" t="n">
+        <v/>
+      </c>
+      <c r="D6" t="n">
+        <v/>
+      </c>
+      <c r="E6" t="n">
+        <v/>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+      <c r="G6" t="n">
+        <v/>
+      </c>
+      <c r="H6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -2015,169 +1951,153 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v/>
+      </c>
+      <c r="B7" t="n">
+        <v/>
+      </c>
+      <c r="C7" t="n">
+        <v/>
+      </c>
+      <c r="D7" t="n">
+        <v/>
+      </c>
+      <c r="E7" t="n">
+        <v/>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+      <c r="G7" t="n">
+        <v/>
+      </c>
+      <c r="H7" t="n">
+        <v/>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2217,169 +2137,153 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v/>
+      </c>
+      <c r="B8" t="n">
+        <v/>
+      </c>
+      <c r="C8" t="n">
+        <v/>
+      </c>
+      <c r="D8" t="n">
+        <v/>
+      </c>
+      <c r="E8" t="n">
+        <v/>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+      <c r="G8" t="n">
+        <v/>
+      </c>
+      <c r="H8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>829</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2419,169 +2323,153 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v/>
+      </c>
+      <c r="B9" t="n">
+        <v/>
+      </c>
+      <c r="C9" t="n">
+        <v/>
+      </c>
+      <c r="D9" t="n">
+        <v/>
+      </c>
+      <c r="E9" t="n">
+        <v/>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+      <c r="G9" t="n">
+        <v/>
+      </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>275</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2621,194 +2509,178 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v/>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>829</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>274</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>274</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2823,169 +2695,153 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v/>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v/>
+      </c>
+      <c r="E11" t="n">
+        <v/>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+      <c r="G11" t="n">
+        <v/>
+      </c>
+      <c r="H11" t="n">
+        <v/>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>275</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3025,169 +2881,153 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v/>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v/>
+      </c>
+      <c r="E12" t="n">
+        <v/>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+      <c r="G12" t="n">
+        <v/>
+      </c>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3227,153 +3067,137 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v/>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v/>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="n">
-        <v/>
-      </c>
-      <c r="Q13" t="n">
-        <v/>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="n">
+        <v/>
+      </c>
+      <c r="X13" t="n">
+        <v/>
+      </c>
+      <c r="Y13" t="n">
+        <v/>
+      </c>
+      <c r="Z13" t="n">
+        <v/>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3413,69 +3237,69 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v/>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v/>
+      </c>
+      <c r="E14" t="n">
+        <v/>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+      <c r="G14" t="n">
+        <v/>
+      </c>
+      <c r="H14" t="n">
+        <v/>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
-      <c r="K14" t="n">
-        <v/>
-      </c>
-      <c r="L14" t="n">
-        <v/>
-      </c>
-      <c r="M14" t="n">
-        <v/>
-      </c>
-      <c r="N14" t="n">
-        <v/>
-      </c>
-      <c r="O14" t="n">
-        <v/>
-      </c>
-      <c r="P14" t="n">
-        <v/>
-      </c>
-      <c r="Q14" t="n">
-        <v/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S14" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -759,25 +759,25 @@
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="5" customWidth="1" min="7" max="7"/>
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
-    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="5" customWidth="1" min="25" max="25"/>
@@ -786,16 +786,16 @@
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="6" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
     <col width="5" customWidth="1" min="41" max="41"/>
     <col width="5" customWidth="1" min="42" max="42"/>
     <col width="5" customWidth="1" min="43" max="43"/>
@@ -1007,388 +1007,388 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>1038</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>192</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v/>
-      </c>
-      <c r="B3" t="n">
-        <v/>
-      </c>
-      <c r="C3" t="n">
-        <v/>
-      </c>
-      <c r="D3" t="n">
-        <v/>
-      </c>
-      <c r="E3" t="n">
-        <v/>
-      </c>
-      <c r="F3" t="n">
-        <v/>
-      </c>
-      <c r="G3" t="n">
-        <v/>
-      </c>
-      <c r="H3" t="n">
-        <v/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
+        <v/>
+      </c>
+      <c r="W3" t="n">
+        <v/>
+      </c>
+      <c r="X3" t="n">
+        <v/>
+      </c>
+      <c r="Y3" t="n">
+        <v/>
+      </c>
+      <c r="Z3" t="n">
+        <v/>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
@@ -1419,162 +1419,146 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v/>
+      </c>
+      <c r="W4" t="n">
+        <v/>
+      </c>
+      <c r="X4" t="n">
+        <v/>
+      </c>
+      <c r="Y4" t="n">
+        <v/>
+      </c>
+      <c r="Z4" t="n">
+        <v/>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>23</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>22</t>
         </is>
       </c>
     </row>
@@ -1603,164 +1587,132 @@
       <c r="H5" t="n">
         <v/>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
+        <v/>
+      </c>
+      <c r="O5" t="n">
+        <v/>
+      </c>
+      <c r="P5" t="n">
+        <v/>
+      </c>
+      <c r="Q5" t="n">
+        <v/>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+      <c r="W5" t="n">
+        <v/>
+      </c>
+      <c r="X5" t="n">
+        <v/>
+      </c>
+      <c r="Y5" t="n">
+        <v/>
+      </c>
+      <c r="Z5" t="n">
+        <v/>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
@@ -1789,134 +1741,102 @@
       <c r="H6" t="n">
         <v/>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
+      <c r="N6" t="n">
+        <v/>
+      </c>
+      <c r="O6" t="n">
+        <v/>
+      </c>
+      <c r="P6" t="n">
+        <v/>
+      </c>
+      <c r="Q6" t="n">
+        <v/>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v/>
+      </c>
+      <c r="W6" t="n">
+        <v/>
+      </c>
+      <c r="X6" t="n">
+        <v/>
+      </c>
+      <c r="Y6" t="n">
+        <v/>
+      </c>
+      <c r="Z6" t="n">
+        <v/>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
@@ -1975,134 +1895,102 @@
       <c r="H7" t="n">
         <v/>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v/>
+      </c>
+      <c r="P7" t="n">
+        <v/>
+      </c>
+      <c r="Q7" t="n">
+        <v/>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v/>
+      </c>
+      <c r="W7" t="n">
+        <v/>
+      </c>
+      <c r="X7" t="n">
+        <v/>
+      </c>
+      <c r="Y7" t="n">
+        <v/>
+      </c>
+      <c r="Z7" t="n">
+        <v/>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -2161,164 +2049,132 @@
       <c r="H8" t="n">
         <v/>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v/>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="n">
+        <v/>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+      <c r="W8" t="n">
+        <v/>
+      </c>
+      <c r="X8" t="n">
+        <v/>
+      </c>
+      <c r="Y8" t="n">
+        <v/>
+      </c>
+      <c r="Z8" t="n">
+        <v/>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>829</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2347,164 +2203,132 @@
       <c r="H9" t="n">
         <v/>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v/>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="n">
+        <v/>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
+        <v/>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>275</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2533,164 +2357,132 @@
       <c r="H10" t="n">
         <v/>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v/>
+      </c>
+      <c r="M10" t="n">
+        <v/>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v/>
+      </c>
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="n">
+        <v/>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
+      <c r="X10" t="n">
+        <v/>
+      </c>
+      <c r="Y10" t="n">
+        <v/>
+      </c>
+      <c r="Z10" t="n">
+        <v/>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>829</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>274</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>274</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2719,146 +2511,114 @@
       <c r="H11" t="n">
         <v/>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v/>
+      </c>
+      <c r="M11" t="n">
+        <v/>
+      </c>
+      <c r="N11" t="n">
+        <v/>
+      </c>
+      <c r="O11" t="n">
+        <v/>
+      </c>
+      <c r="P11" t="n">
+        <v/>
+      </c>
+      <c r="Q11" t="n">
+        <v/>
+      </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+      <c r="U11" t="n">
+        <v/>
+      </c>
+      <c r="V11" t="n">
+        <v/>
+      </c>
+      <c r="W11" t="n">
+        <v/>
+      </c>
+      <c r="X11" t="n">
+        <v/>
+      </c>
+      <c r="Y11" t="n">
+        <v/>
+      </c>
+      <c r="Z11" t="n">
+        <v/>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>275</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="AO11" t="inlineStr">
         <is>
           <t>0</t>
@@ -2866,7 +2626,7 @@
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -2905,154 +2665,122 @@
       <c r="H12" t="n">
         <v/>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v/>
+      </c>
+      <c r="M12" t="n">
+        <v/>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v/>
+      </c>
+      <c r="P12" t="n">
+        <v/>
+      </c>
+      <c r="Q12" t="n">
+        <v/>
+      </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v/>
+      </c>
+      <c r="V12" t="n">
+        <v/>
+      </c>
+      <c r="W12" t="n">
+        <v/>
+      </c>
+      <c r="X12" t="n">
+        <v/>
+      </c>
+      <c r="Y12" t="n">
+        <v/>
+      </c>
+      <c r="Z12" t="n">
+        <v/>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>18</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -3091,98 +2819,82 @@
       <c r="H13" t="n">
         <v/>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v/>
+      </c>
+      <c r="M13" t="n">
+        <v/>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v/>
+      </c>
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="n">
+        <v/>
+      </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="n">
+        <v/>
+      </c>
+      <c r="X13" t="n">
+        <v/>
+      </c>
+      <c r="Y13" t="n">
+        <v/>
+      </c>
+      <c r="Z13" t="n">
+        <v/>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="n">
-        <v/>
-      </c>
-      <c r="U13" t="n">
-        <v/>
-      </c>
-      <c r="V13" t="n">
-        <v/>
-      </c>
-      <c r="W13" t="n">
-        <v/>
-      </c>
-      <c r="X13" t="n">
-        <v/>
-      </c>
-      <c r="Y13" t="n">
-        <v/>
-      </c>
-      <c r="Z13" t="n">
-        <v/>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3195,45 +2907,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AK13" t="n">
+        <v/>
+      </c>
+      <c r="AL13" t="n">
+        <v/>
+      </c>
+      <c r="AM13" t="n">
+        <v/>
+      </c>
+      <c r="AN13" t="n">
+        <v/>
+      </c>
+      <c r="AO13" t="n">
+        <v/>
+      </c>
+      <c r="AP13" t="n">
+        <v/>
+      </c>
+      <c r="AQ13" t="n">
+        <v/>
+      </c>
+      <c r="AR13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -3261,93 +2957,93 @@
       <c r="H14" t="n">
         <v/>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v/>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v/>
+      </c>
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="n">
+        <v/>
+      </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="n">
+        <v/>
+      </c>
+      <c r="W14" t="n">
+        <v/>
+      </c>
+      <c r="X14" t="n">
+        <v/>
+      </c>
+      <c r="Y14" t="n">
+        <v/>
+      </c>
+      <c r="Z14" t="n">
+        <v/>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="n">
-        <v/>
-      </c>
-      <c r="U14" t="n">
-        <v/>
-      </c>
-      <c r="V14" t="n">
-        <v/>
-      </c>
-      <c r="W14" t="n">
-        <v/>
-      </c>
-      <c r="X14" t="n">
-        <v/>
-      </c>
-      <c r="Y14" t="n">
-        <v/>
-      </c>
-      <c r="Z14" t="n">
-        <v/>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
-        <v/>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AK14" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -759,7 +759,7 @@
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="5" customWidth="1" min="7" max="7"/>
@@ -768,7 +768,7 @@
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="5" customWidth="1" min="16" max="16"/>
@@ -784,13 +784,13 @@
     <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="9" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="19" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
@@ -798,8 +798,8 @@
     <col width="5" customWidth="1" min="40" max="40"/>
     <col width="5" customWidth="1" min="41" max="41"/>
     <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="5" customWidth="1" min="43" max="43"/>
-    <col width="5" customWidth="1" min="44" max="44"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1007,388 +1007,372 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>187</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>285</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>1038</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v/>
+      </c>
+      <c r="B3" t="n">
+        <v/>
+      </c>
+      <c r="C3" t="n">
+        <v/>
+      </c>
+      <c r="D3" t="n">
+        <v/>
+      </c>
+      <c r="E3" t="n">
+        <v/>
+      </c>
+      <c r="F3" t="n">
+        <v/>
+      </c>
+      <c r="G3" t="n">
+        <v/>
+      </c>
+      <c r="H3" t="n">
+        <v/>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>1040</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="n">
-        <v/>
-      </c>
-      <c r="X3" t="n">
-        <v/>
-      </c>
-      <c r="Y3" t="n">
-        <v/>
-      </c>
-      <c r="Z3" t="n">
-        <v/>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="n">
+        <v/>
+      </c>
+      <c r="AC3" t="n">
+        <v/>
+      </c>
+      <c r="AD3" t="n">
+        <v/>
+      </c>
+      <c r="AE3" t="n">
+        <v/>
+      </c>
+      <c r="AF3" t="n">
+        <v/>
+      </c>
+      <c r="AG3" t="n">
+        <v/>
+      </c>
+      <c r="AH3" t="n">
+        <v/>
+      </c>
+      <c r="AI3" t="n">
+        <v/>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>313</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>22</t>
         </is>
       </c>
     </row>
@@ -1419,146 +1403,146 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t>263</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v/>
-      </c>
-      <c r="W4" t="n">
-        <v/>
-      </c>
-      <c r="X4" t="n">
-        <v/>
-      </c>
-      <c r="Y4" t="n">
-        <v/>
-      </c>
-      <c r="Z4" t="n">
-        <v/>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
+        <v/>
+      </c>
+      <c r="AC4" t="n">
+        <v/>
+      </c>
+      <c r="AD4" t="n">
+        <v/>
+      </c>
+      <c r="AE4" t="n">
+        <v/>
+      </c>
+      <c r="AF4" t="n">
+        <v/>
+      </c>
+      <c r="AG4" t="n">
+        <v/>
+      </c>
+      <c r="AH4" t="n">
+        <v/>
+      </c>
+      <c r="AI4" t="n">
+        <v/>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>895</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
@@ -1587,29 +1571,45 @@
       <c r="H5" t="n">
         <v/>
       </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
-      <c r="L5" t="n">
-        <v/>
-      </c>
-      <c r="M5" t="n">
-        <v/>
-      </c>
-      <c r="N5" t="n">
-        <v/>
-      </c>
-      <c r="O5" t="n">
-        <v/>
-      </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
-      <c r="Q5" t="n">
-        <v/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S5" t="n">
         <v/>
@@ -1635,84 +1635,68 @@
       <c r="Z5" t="n">
         <v/>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
@@ -1789,84 +1773,68 @@
       <c r="Z6" t="n">
         <v/>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>907</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>23</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
@@ -1943,54 +1911,38 @@
       <c r="Z7" t="n">
         <v/>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -2097,84 +2049,68 @@
       <c r="Z8" t="n">
         <v/>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>829</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2251,84 +2187,68 @@
       <c r="Z9" t="n">
         <v/>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>275</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
     </row>
@@ -2405,74 +2325,58 @@
       <c r="Z10" t="n">
         <v/>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>829</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>81</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2559,84 +2463,68 @@
       <c r="Z11" t="n">
         <v/>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>275</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2713,74 +2601,58 @@
       <c r="Z12" t="n">
         <v/>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
+        <v/>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>18</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -2867,69 +2739,69 @@
       <c r="Z13" t="n">
         <v/>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="n">
-        <v/>
-      </c>
-      <c r="AL13" t="n">
-        <v/>
-      </c>
-      <c r="AM13" t="n">
-        <v/>
-      </c>
-      <c r="AN13" t="n">
-        <v/>
-      </c>
-      <c r="AO13" t="n">
-        <v/>
-      </c>
-      <c r="AP13" t="n">
-        <v/>
-      </c>
-      <c r="AQ13" t="n">
-        <v/>
-      </c>
-      <c r="AR13" t="n">
-        <v/>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -3005,69 +2877,69 @@
       <c r="Z14" t="n">
         <v/>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
+      </c>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK14" t="n">
-        <v/>
-      </c>
-      <c r="AL14" t="n">
-        <v/>
-      </c>
-      <c r="AM14" t="n">
-        <v/>
-      </c>
-      <c r="AN14" t="n">
-        <v/>
-      </c>
-      <c r="AO14" t="n">
-        <v/>
-      </c>
-      <c r="AP14" t="n">
-        <v/>
-      </c>
-      <c r="AQ14" t="n">
-        <v/>
-      </c>
-      <c r="AR14" t="n">
-        <v/>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -552,20 +552,20 @@
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="3" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="9" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="19" customWidth="1" min="37" max="37"/>
     <col width="9" customWidth="1" min="38" max="38"/>
@@ -782,197 +782,197 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>1060</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>198</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>187</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>285</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>135</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>1038</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -1006,133 +1006,149 @@
       <c r="H3" t="n">
         <v/>
       </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
-      <c r="L3" t="n">
-        <v/>
-      </c>
-      <c r="M3" t="n">
-        <v/>
-      </c>
-      <c r="N3" t="n">
-        <v/>
-      </c>
-      <c r="O3" t="n">
-        <v/>
-      </c>
-      <c r="P3" t="n">
-        <v/>
-      </c>
-      <c r="Q3" t="n">
-        <v/>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
+        <v/>
+      </c>
+      <c r="W3" t="n">
+        <v/>
+      </c>
+      <c r="X3" t="n">
+        <v/>
+      </c>
+      <c r="Y3" t="n">
+        <v/>
+      </c>
+      <c r="Z3" t="n">
+        <v/>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>69</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>1040</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="n">
-        <v/>
-      </c>
-      <c r="AL3" t="n">
-        <v/>
-      </c>
-      <c r="AM3" t="n">
-        <v/>
-      </c>
-      <c r="AN3" t="n">
-        <v/>
-      </c>
-      <c r="AO3" t="n">
-        <v/>
-      </c>
-      <c r="AP3" t="n">
-        <v/>
-      </c>
-      <c r="AQ3" t="n">
-        <v/>
-      </c>
-      <c r="AR3" t="n">
-        <v/>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1184,109 +1200,109 @@
       <c r="Q4" t="n">
         <v/>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v/>
+      </c>
+      <c r="W4" t="n">
+        <v/>
+      </c>
+      <c r="X4" t="n">
+        <v/>
+      </c>
+      <c r="Y4" t="n">
+        <v/>
+      </c>
+      <c r="Z4" t="n">
+        <v/>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>138</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
         <is>
           <t>263</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="n">
-        <v/>
-      </c>
-      <c r="AL4" t="n">
-        <v/>
-      </c>
-      <c r="AM4" t="n">
-        <v/>
-      </c>
-      <c r="AN4" t="n">
-        <v/>
-      </c>
-      <c r="AO4" t="n">
-        <v/>
-      </c>
-      <c r="AP4" t="n">
-        <v/>
-      </c>
-      <c r="AQ4" t="n">
-        <v/>
-      </c>
-      <c r="AR4" t="n">
-        <v/>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1338,69 +1354,69 @@
       <c r="Q5" t="n">
         <v/>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+      <c r="W5" t="n">
+        <v/>
+      </c>
+      <c r="X5" t="n">
+        <v/>
+      </c>
+      <c r="Y5" t="n">
+        <v/>
+      </c>
+      <c r="Z5" t="n">
+        <v/>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AK5" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -561,20 +561,20 @@
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="9" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="19" customWidth="1" min="37" max="37"/>
     <col width="9" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="6" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
     <col width="5" customWidth="1" min="41" max="41"/>
     <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="5" customWidth="1" min="43" max="43"/>
-    <col width="5" customWidth="1" min="44" max="44"/>
+    <col width="3" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -782,192 +782,192 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1060</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>496</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>1060</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>198</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>187</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>285</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>135</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1006,138 +1006,122 @@
       <c r="H3" t="n">
         <v/>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v/>
+      </c>
+      <c r="M3" t="n">
+        <v/>
+      </c>
+      <c r="N3" t="n">
+        <v/>
+      </c>
+      <c r="O3" t="n">
+        <v/>
+      </c>
+      <c r="P3" t="n">
+        <v/>
+      </c>
+      <c r="Q3" t="n">
+        <v/>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>1060</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="n">
-        <v/>
-      </c>
-      <c r="X3" t="n">
-        <v/>
-      </c>
-      <c r="Y3" t="n">
-        <v/>
-      </c>
-      <c r="Z3" t="n">
-        <v/>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="n">
+        <v/>
+      </c>
+      <c r="AC3" t="n">
+        <v/>
+      </c>
+      <c r="AD3" t="n">
+        <v/>
+      </c>
+      <c r="AE3" t="n">
+        <v/>
+      </c>
+      <c r="AF3" t="n">
+        <v/>
+      </c>
+      <c r="AG3" t="n">
+        <v/>
+      </c>
+      <c r="AH3" t="n">
+        <v/>
+      </c>
+      <c r="AI3" t="n">
+        <v/>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>922</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>69</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>1040</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>17</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1224,74 +1208,58 @@
       <c r="Z4" t="n">
         <v/>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AB4" t="n">
+        <v/>
+      </c>
+      <c r="AC4" t="n">
+        <v/>
+      </c>
+      <c r="AD4" t="n">
+        <v/>
+      </c>
+      <c r="AE4" t="n">
+        <v/>
+      </c>
+      <c r="AF4" t="n">
+        <v/>
+      </c>
+      <c r="AG4" t="n">
+        <v/>
+      </c>
+      <c r="AH4" t="n">
+        <v/>
+      </c>
+      <c r="AI4" t="n">
+        <v/>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>138</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>263</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1378,69 +1346,69 @@
       <c r="Z5" t="n">
         <v/>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="n">
-        <v/>
-      </c>
-      <c r="AL5" t="n">
-        <v/>
-      </c>
-      <c r="AM5" t="n">
-        <v/>
-      </c>
-      <c r="AN5" t="n">
-        <v/>
-      </c>
-      <c r="AO5" t="n">
-        <v/>
-      </c>
-      <c r="AP5" t="n">
-        <v/>
-      </c>
-      <c r="AQ5" t="n">
-        <v/>
-      </c>
-      <c r="AR5" t="n">
-        <v/>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -196,31 +196,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>66</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -523,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,13 +507,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="4" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="3" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
@@ -563,18 +538,18 @@
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="19" customWidth="1" min="37" max="37"/>
     <col width="9" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="6" customWidth="1" min="40" max="40"/>
     <col width="5" customWidth="1" min="41" max="41"/>
     <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="3" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -782,197 +757,197 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1060</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>1060</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>496</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>1060</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -982,29 +957,45 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v/>
-      </c>
-      <c r="B3" t="n">
-        <v/>
-      </c>
-      <c r="C3" t="n">
-        <v/>
-      </c>
-      <c r="D3" t="n">
-        <v/>
-      </c>
-      <c r="E3" t="n">
-        <v/>
-      </c>
-      <c r="F3" t="n">
-        <v/>
-      </c>
-      <c r="G3" t="n">
-        <v/>
-      </c>
-      <c r="H3" t="n">
-        <v/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J3" t="n">
         <v/>
@@ -1030,385 +1021,93 @@
       <c r="Q3" t="n">
         <v/>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
+        <v/>
+      </c>
+      <c r="W3" t="n">
+        <v/>
+      </c>
+      <c r="X3" t="n">
+        <v/>
+      </c>
+      <c r="Y3" t="n">
+        <v/>
+      </c>
+      <c r="Z3" t="n">
+        <v/>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>1060</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="n">
-        <v/>
-      </c>
-      <c r="AC3" t="n">
-        <v/>
-      </c>
-      <c r="AD3" t="n">
-        <v/>
-      </c>
-      <c r="AE3" t="n">
-        <v/>
-      </c>
-      <c r="AF3" t="n">
-        <v/>
-      </c>
-      <c r="AG3" t="n">
-        <v/>
-      </c>
-      <c r="AH3" t="n">
-        <v/>
-      </c>
-      <c r="AI3" t="n">
-        <v/>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>922</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v/>
-      </c>
-      <c r="B4" t="n">
-        <v/>
-      </c>
-      <c r="C4" t="n">
-        <v/>
-      </c>
-      <c r="D4" t="n">
-        <v/>
-      </c>
-      <c r="E4" t="n">
-        <v/>
-      </c>
-      <c r="F4" t="n">
-        <v/>
-      </c>
-      <c r="G4" t="n">
-        <v/>
-      </c>
-      <c r="H4" t="n">
-        <v/>
-      </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
-      <c r="L4" t="n">
-        <v/>
-      </c>
-      <c r="M4" t="n">
-        <v/>
-      </c>
-      <c r="N4" t="n">
-        <v/>
-      </c>
-      <c r="O4" t="n">
-        <v/>
-      </c>
-      <c r="P4" t="n">
-        <v/>
-      </c>
-      <c r="Q4" t="n">
-        <v/>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v/>
-      </c>
-      <c r="W4" t="n">
-        <v/>
-      </c>
-      <c r="X4" t="n">
-        <v/>
-      </c>
-      <c r="Y4" t="n">
-        <v/>
-      </c>
-      <c r="Z4" t="n">
-        <v/>
-      </c>
-      <c r="AB4" t="n">
-        <v/>
-      </c>
-      <c r="AC4" t="n">
-        <v/>
-      </c>
-      <c r="AD4" t="n">
-        <v/>
-      </c>
-      <c r="AE4" t="n">
-        <v/>
-      </c>
-      <c r="AF4" t="n">
-        <v/>
-      </c>
-      <c r="AG4" t="n">
-        <v/>
-      </c>
-      <c r="AH4" t="n">
-        <v/>
-      </c>
-      <c r="AI4" t="n">
-        <v/>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v/>
-      </c>
-      <c r="B5" t="n">
-        <v/>
-      </c>
-      <c r="C5" t="n">
-        <v/>
-      </c>
-      <c r="D5" t="n">
-        <v/>
-      </c>
-      <c r="E5" t="n">
-        <v/>
-      </c>
-      <c r="F5" t="n">
-        <v/>
-      </c>
-      <c r="G5" t="n">
-        <v/>
-      </c>
-      <c r="H5" t="n">
-        <v/>
-      </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
-      <c r="L5" t="n">
-        <v/>
-      </c>
-      <c r="M5" t="n">
-        <v/>
-      </c>
-      <c r="N5" t="n">
-        <v/>
-      </c>
-      <c r="O5" t="n">
-        <v/>
-      </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
-      <c r="Q5" t="n">
-        <v/>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v/>
-      </c>
-      <c r="W5" t="n">
-        <v/>
-      </c>
-      <c r="X5" t="n">
-        <v/>
-      </c>
-      <c r="Y5" t="n">
-        <v/>
-      </c>
-      <c r="Z5" t="n">
-        <v/>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="n">
+        <v/>
+      </c>
+      <c r="AL3" t="n">
+        <v/>
+      </c>
+      <c r="AM3" t="n">
+        <v/>
+      </c>
+      <c r="AN3" t="n">
+        <v/>
+      </c>
+      <c r="AO3" t="n">
+        <v/>
+      </c>
+      <c r="AP3" t="n">
+        <v/>
+      </c>
+      <c r="AQ3" t="n">
+        <v/>
+      </c>
+      <c r="AR3" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev1.xlsx
+++ b/minio-report-tracker/xlxs/dev1.xlsx
@@ -196,6 +196,281 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>66</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>88</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>110</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>132</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>154</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>176</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>198</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>220</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>242</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>264</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>286</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -498,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,27 +782,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="4" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="3" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="6" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="5" customWidth="1" min="16" max="16"/>
     <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="5" customWidth="1" min="25" max="25"/>
@@ -538,9 +813,9 @@
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
     <col width="2" customWidth="1" min="36" max="36"/>
     <col width="19" customWidth="1" min="37" max="37"/>
     <col width="9" customWidth="1" min="38" max="38"/>
@@ -757,167 +1032,167 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>22-September-2025</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>496</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>1060</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>496</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -959,154 +1234,1614 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>22-September-2025</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
-      <c r="L3" t="n">
-        <v/>
-      </c>
-      <c r="M3" t="n">
-        <v/>
-      </c>
-      <c r="N3" t="n">
-        <v/>
-      </c>
-      <c r="O3" t="n">
-        <v/>
-      </c>
-      <c r="P3" t="n">
-        <v/>
-      </c>
-      <c r="Q3" t="n">
-        <v/>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="n">
-        <v/>
-      </c>
-      <c r="X3" t="n">
-        <v/>
-      </c>
-      <c r="Y3" t="n">
-        <v/>
-      </c>
-      <c r="Z3" t="n">
-        <v/>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="n">
+        <v/>
+      </c>
+      <c r="AC3" t="n">
+        <v/>
+      </c>
+      <c r="AD3" t="n">
+        <v/>
+      </c>
+      <c r="AE3" t="n">
+        <v/>
+      </c>
+      <c r="AF3" t="n">
+        <v/>
+      </c>
+      <c r="AG3" t="n">
+        <v/>
+      </c>
+      <c r="AH3" t="n">
+        <v/>
+      </c>
+      <c r="AI3" t="n">
+        <v/>
+      </c>
+      <c r="AK3" t="n">
+        <v/>
+      </c>
+      <c r="AL3" t="n">
+        <v/>
+      </c>
+      <c r="AM3" t="n">
+        <v/>
+      </c>
+      <c r="AN3" t="n">
+        <v/>
+      </c>
+      <c r="AO3" t="n">
+        <v/>
+      </c>
+      <c r="AP3" t="n">
+        <v/>
+      </c>
+      <c r="AQ3" t="n">
+        <v/>
+      </c>
+      <c r="AR3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>22-September-2025</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v/>
+      </c>
+      <c r="W4" t="n">
+        <v/>
+      </c>
+      <c r="X4" t="n">
+        <v/>
+      </c>
+      <c r="Y4" t="n">
+        <v/>
+      </c>
+      <c r="Z4" t="n">
+        <v/>
+      </c>
+      <c r="AB4" t="n">
+        <v/>
+      </c>
+      <c r="AC4" t="n">
+        <v/>
+      </c>
+      <c r="AD4" t="n">
+        <v/>
+      </c>
+      <c r="AE4" t="n">
+        <v/>
+      </c>
+      <c r="AF4" t="n">
+        <v/>
+      </c>
+      <c r="AG4" t="n">
+        <v/>
+      </c>
+      <c r="AH4" t="n">
+        <v/>
+      </c>
+      <c r="AI4" t="n">
+        <v/>
+      </c>
+      <c r="AK4" t="n">
+        <v/>
+      </c>
+      <c r="AL4" t="n">
+        <v/>
+      </c>
+      <c r="AM4" t="n">
+        <v/>
+      </c>
+      <c r="AN4" t="n">
+        <v/>
+      </c>
+      <c r="AO4" t="n">
+        <v/>
+      </c>
+      <c r="AP4" t="n">
+        <v/>
+      </c>
+      <c r="AQ4" t="n">
+        <v/>
+      </c>
+      <c r="AR4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>22-September-2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1022</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+      <c r="W5" t="n">
+        <v/>
+      </c>
+      <c r="X5" t="n">
+        <v/>
+      </c>
+      <c r="Y5" t="n">
+        <v/>
+      </c>
+      <c r="Z5" t="n">
+        <v/>
+      </c>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
+      </c>
+      <c r="AK5" t="n">
+        <v/>
+      </c>
+      <c r="AL5" t="n">
+        <v/>
+      </c>
+      <c r="AM5" t="n">
+        <v/>
+      </c>
+      <c r="AN5" t="n">
+        <v/>
+      </c>
+      <c r="AO5" t="n">
+        <v/>
+      </c>
+      <c r="AP5" t="n">
+        <v/>
+      </c>
+      <c r="AQ5" t="n">
+        <v/>
+      </c>
+      <c r="AR5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>22-September-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v/>
+      </c>
+      <c r="W6" t="n">
+        <v/>
+      </c>
+      <c r="X6" t="n">
+        <v/>
+      </c>
+      <c r="Y6" t="n">
+        <v/>
+      </c>
+      <c r="Z6" t="n">
+        <v/>
+      </c>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
+      </c>
+      <c r="AK6" t="n">
+        <v/>
+      </c>
+      <c r="AL6" t="n">
+        <v/>
+      </c>
+      <c r="AM6" t="n">
+        <v/>
+      </c>
+      <c r="AN6" t="n">
+        <v/>
+      </c>
+      <c r="AO6" t="n">
+        <v/>
+      </c>
+      <c r="AP6" t="n">
+        <v/>
+      </c>
+      <c r="AQ6" t="n">
+        <v/>
+      </c>
+      <c r="AR6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>22-September-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v/>
+      </c>
+      <c r="W7" t="n">
+        <v/>
+      </c>
+      <c r="X7" t="n">
+        <v/>
+      </c>
+      <c r="Y7" t="n">
+        <v/>
+      </c>
+      <c r="Z7" t="n">
+        <v/>
+      </c>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
+      </c>
+      <c r="AK7" t="n">
+        <v/>
+      </c>
+      <c r="AL7" t="n">
+        <v/>
+      </c>
+      <c r="AM7" t="n">
+        <v/>
+      </c>
+      <c r="AN7" t="n">
+        <v/>
+      </c>
+      <c r="AO7" t="n">
+        <v/>
+      </c>
+      <c r="AP7" t="n">
+        <v/>
+      </c>
+      <c r="AQ7" t="n">
+        <v/>
+      </c>
+      <c r="AR7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v/>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="n">
+        <v/>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+      <c r="W8" t="n">
+        <v/>
+      </c>
+      <c r="X8" t="n">
+        <v/>
+      </c>
+      <c r="Y8" t="n">
+        <v/>
+      </c>
+      <c r="Z8" t="n">
+        <v/>
+      </c>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
+      </c>
+      <c r="AK8" t="n">
+        <v/>
+      </c>
+      <c r="AL8" t="n">
+        <v/>
+      </c>
+      <c r="AM8" t="n">
+        <v/>
+      </c>
+      <c r="AN8" t="n">
+        <v/>
+      </c>
+      <c r="AO8" t="n">
+        <v/>
+      </c>
+      <c r="AP8" t="n">
+        <v/>
+      </c>
+      <c r="AQ8" t="n">
+        <v/>
+      </c>
+      <c r="AR8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v/>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="n">
+        <v/>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
+        <v/>
+      </c>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
+      </c>
+      <c r="AK9" t="n">
+        <v/>
+      </c>
+      <c r="AL9" t="n">
+        <v/>
+      </c>
+      <c r="AM9" t="n">
+        <v/>
+      </c>
+      <c r="AN9" t="n">
+        <v/>
+      </c>
+      <c r="AO9" t="n">
+        <v/>
+      </c>
+      <c r="AP9" t="n">
+        <v/>
+      </c>
+      <c r="AQ9" t="n">
+        <v/>
+      </c>
+      <c r="AR9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1067</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="n">
-        <v/>
-      </c>
-      <c r="AL3" t="n">
-        <v/>
-      </c>
-      <c r="AM3" t="n">
-        <v/>
-      </c>
-      <c r="AN3" t="n">
-        <v/>
-      </c>
-      <c r="AO3" t="n">
-        <v/>
-      </c>
-      <c r="AP3" t="n">
